--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1689576.769864534</v>
+        <v>-1692236.122836547</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>174.3492438144378</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>197.6638731957455</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>100.4510968943878</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -826,7 +826,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>56.4536322373634</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>50.98074812542875</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>197.6571014864971</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>21.75034195041583</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>21.53081003936546</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -1072,7 +1072,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.58963917866424</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -1108,19 +1108,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>282.6699100142259</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>218.8748435506846</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>17.84935903930807</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>276.5367708583886</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986293</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>41.33703994142822</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1579,10 +1579,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>235.5696871035106</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576149</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>120.7871326503968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>41.55695577161151</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>160.1763464053459</v>
+        <v>151.8555862333575</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>88.98787776789642</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2761,13 +2761,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>50.52682476229707</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
         <v>124.3308255261727</v>
@@ -3433,16 +3433,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808194</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,10 +3721,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T43" t="n">
         <v>193.1208028352485</v>
@@ -3955,16 +3955,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>531.4162778577438</v>
+        <v>979.6057563167954</v>
       </c>
       <c r="C2" t="n">
-        <v>531.4162778577438</v>
+        <v>979.6057563167954</v>
       </c>
       <c r="D2" t="n">
-        <v>355.3059305704328</v>
+        <v>621.3400577100449</v>
       </c>
       <c r="E2" t="n">
-        <v>355.3059305704328</v>
+        <v>621.3400577100449</v>
       </c>
       <c r="F2" t="n">
-        <v>355.3059305704328</v>
+        <v>621.3400577100449</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2460.873573961379</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2460.873573961379</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2129.810686617809</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>2129.810686617809</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218655</v>
+        <v>1756.344928356729</v>
       </c>
       <c r="Y2" t="n">
-        <v>918.0161179218655</v>
+        <v>1366.205596380917</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310615</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625333</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217535</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.463386300792</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2362.9309660677</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>665.1026499885492</v>
+        <v>1444.105910816296</v>
       </c>
       <c r="C4" t="n">
-        <v>496.1664670606423</v>
+        <v>1275.169727888389</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>1125.053088476053</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312202</v>
+        <v>1002.609167878779</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627705</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>1750.112669035316</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.98193257148</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324692</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074498</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074498</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074498</v>
+        <v>2505.315457453323</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074498</v>
+        <v>2216.197119957161</v>
       </c>
       <c r="V4" t="n">
-        <v>1584.950414897297</v>
+        <v>1961.512631751274</v>
       </c>
       <c r="W4" t="n">
-        <v>1295.533244860336</v>
+        <v>1672.095461714313</v>
       </c>
       <c r="X4" t="n">
-        <v>1067.543693962319</v>
+        <v>1444.105910816296</v>
       </c>
       <c r="Y4" t="n">
-        <v>846.7511148187889</v>
+        <v>1444.105910816296</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1571.558046306621</v>
+        <v>1798.734238163263</v>
       </c>
       <c r="C5" t="n">
-        <v>1202.59552936621</v>
+        <v>1429.771721222852</v>
       </c>
       <c r="D5" t="n">
-        <v>844.329830759459</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E5" t="n">
         <v>844.329830759459</v>
@@ -4562,19 +4562,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4583,34 +4583,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2331.623644631823</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2331.623644631823</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X5" t="n">
-        <v>1958.157886370743</v>
+        <v>2188.873570139075</v>
       </c>
       <c r="Y5" t="n">
-        <v>1958.157886370743</v>
+        <v>1798.734238163263</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380219</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694938</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>684.8214259065184</v>
+        <v>643.4886826182741</v>
       </c>
       <c r="C7" t="n">
-        <v>515.8852429786115</v>
+        <v>643.4886826182741</v>
       </c>
       <c r="D7" t="n">
-        <v>515.8852429786115</v>
+        <v>643.4886826182741</v>
       </c>
       <c r="E7" t="n">
-        <v>367.9721493962184</v>
+        <v>495.575589035881</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4744,31 +4744,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1614.638403732413</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1418.009655892274</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1195.031175087009</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1195.031175087009</v>
+        <v>825.1371474485138</v>
       </c>
       <c r="V7" t="n">
-        <v>1195.031175087009</v>
+        <v>825.1371474485138</v>
       </c>
       <c r="W7" t="n">
-        <v>905.6140050500485</v>
+        <v>825.1371474485138</v>
       </c>
       <c r="X7" t="n">
-        <v>905.6140050500485</v>
+        <v>825.1371474485138</v>
       </c>
       <c r="Y7" t="n">
-        <v>684.8214259065184</v>
+        <v>825.1371474485138</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1811.579746109089</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1442.617229168677</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1084.351530561926</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>698.5632779636821</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>691.6177772144787</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410102</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>2961.784676410102</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>2588.318918149022</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>2198.17958617321</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>866.1004720732712</v>
+        <v>509.7358901245717</v>
       </c>
       <c r="C10" t="n">
-        <v>697.1642891453644</v>
+        <v>509.7358901245717</v>
       </c>
       <c r="D10" t="n">
-        <v>547.0476497330286</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E10" t="n">
-        <v>399.1345561506355</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>252.2446086527251</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G10" t="n">
-        <v>84.5417720274441</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1456.278592341189</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1201.594104135302</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>912.1769340983416</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>912.1769340983416</v>
       </c>
       <c r="Y10" t="n">
-        <v>866.1004720732712</v>
+        <v>691.3843549548114</v>
       </c>
     </row>
     <row r="11">
@@ -5036,16 +5036,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5054,7 +5054,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>784.5811134804975</v>
+        <v>695.5020655703096</v>
       </c>
       <c r="C13" t="n">
-        <v>615.644930552589</v>
+        <v>526.5658826424027</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402533</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5200,49 +5200,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038328</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797729</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1959.113366595132</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1704.428878389245</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1415.011708352285</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.022157454267</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y13" t="n">
-        <v>966.2295783107372</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="14">
@@ -5255,40 +5255,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,28 +5297,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427007</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797186</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797186</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>135.7933860495997</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5504,31 +5504,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,19 +5592,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5984,7 +5984,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6136,7 +6136,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6221,28 +6221,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>866.4638174991043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
         <v>402.7245934908939</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1048.112282329344</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6555,13 +6555,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,19 +6598,19 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6689,19 +6689,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,13 +7014,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
         <v>1373.553594266881</v>
@@ -7072,16 +7072,16 @@
         <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345477</v>
@@ -7090,7 +7090,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7099,7 +7099,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7114,10 +7114,10 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319332</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,25 +7357,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="41">
@@ -7412,7 +7412,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,22 +7725,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>255.5240487471569</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>60.35797727397565</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878341</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>265.0304328515146</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154985</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22550,16 +22550,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>180.3337978062451</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>173.1061330072037</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>106.2070880858459</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>201.1568951983992</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>107.2784330767841</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>50.61478728573357</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>39.70888054695403</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>57.22910392194237</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>78.25894333073141</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24607,10 +24607,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>168.0578285897977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99467.00901045145</v>
+        <v>99467.00901045147</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796425</v>
@@ -26341,7 +26341,7 @@
         <v>123156.2654796424</v>
       </c>
       <c r="L2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="M2" t="n">
         <v>123156.2654796425</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403376</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363175</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.400124791776761e-11</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363173</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45381.8193949511</v>
+        <v>45381.81939495115</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309556</v>
+        <v>87914.29116309554</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="F4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="F4" t="n">
-        <v>8727.256391744337</v>
-      </c>
       <c r="G4" t="n">
-        <v>8727.256391744268</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.2563917443</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744293</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>16718.11565483777</v>
+        <v>16718.11565483776</v>
       </c>
       <c r="L4" t="n">
+        <v>16718.11565483774</v>
+      </c>
+      <c r="M4" t="n">
+        <v>16718.11565483774</v>
+      </c>
+      <c r="N4" t="n">
         <v>16718.11565483775</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
+        <v>16718.11565483776</v>
+      </c>
+      <c r="P4" t="n">
         <v>16718.11565483775</v>
-      </c>
-      <c r="N4" t="n">
-        <v>16718.11565483776</v>
-      </c>
-      <c r="O4" t="n">
-        <v>16718.11565483775</v>
-      </c>
-      <c r="P4" t="n">
-        <v>16718.11565483776</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1153604.366400264</v>
+        <v>-1153999.187341417</v>
       </c>
       <c r="C6" t="n">
         <v>-105303.6439371853</v>
       </c>
       <c r="D6" t="n">
-        <v>-265319.1066851839</v>
+        <v>-265319.1066851843</v>
       </c>
       <c r="E6" t="n">
-        <v>-314190.2580695057</v>
+        <v>-314224.9959949413</v>
       </c>
       <c r="F6" t="n">
-        <v>11222.20373784946</v>
+        <v>11187.46581241381</v>
       </c>
       <c r="G6" t="n">
-        <v>11222.20373784956</v>
+        <v>11187.46581241381</v>
       </c>
       <c r="H6" t="n">
-        <v>11222.20373784946</v>
+        <v>11187.46581241378</v>
       </c>
       <c r="I6" t="n">
-        <v>11222.20373784949</v>
+        <v>11187.46581241384</v>
       </c>
       <c r="J6" t="n">
-        <v>-156382.974072133</v>
+        <v>-156417.7119975688</v>
       </c>
       <c r="K6" t="n">
-        <v>-16153.6840227425</v>
+        <v>-16153.68402274251</v>
       </c>
       <c r="L6" t="n">
-        <v>-45019.93603730132</v>
+        <v>-45019.93603730154</v>
       </c>
       <c r="M6" t="n">
-        <v>-81780.99396462245</v>
+        <v>-81780.99396462238</v>
       </c>
       <c r="N6" t="n">
-        <v>3274.033970889315</v>
+        <v>3274.033970889403</v>
       </c>
       <c r="O6" t="n">
-        <v>3274.033970889373</v>
+        <v>3274.033970889272</v>
       </c>
       <c r="P6" t="n">
-        <v>-16153.68402274241</v>
+        <v>-16153.68402274238</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203966</v>
       </c>
     </row>
     <row r="3">
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>208.8242370650581</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>213.8838295772085</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27588,10 +27588,10 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>164.2950637598485</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>157.0259401341859</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>306.0019165197191</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27783,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>123.8902379835658</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>79.96793324090936</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>128.2518156392276</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>108.8774149194503</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>126.9056558750127</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,13 +28059,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>9.675067347224228</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,73 +28090,73 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29524,10 +29524,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,34 +31276,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31312,13 +31312,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,34 +31355,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31391,10 +31391,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31440,19 +31440,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,19 +31847,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32078,13 +32078,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>270.9486956727256</v>
+        <v>597.1709559744729</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,10 +32093,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,7 +32312,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32473,7 +32473,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>363.5371514786841</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,7 +33284,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33433,7 +33433,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -33497,16 +33497,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,16 +33734,16 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34144,7 +34144,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34445,10 +34445,10 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>590.9487307432801</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>176.8386996048302</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977097</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34936,28 +34936,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>379.914843031319</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,19 +35495,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>197.843263306679</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096334</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191314</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>128.8146617507074</v>
+        <v>455.0369220524547</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,10 +35741,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>220.9409070342396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K31" t="n">
         <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
